--- a/My sheet.xlsx
+++ b/My sheet.xlsx
@@ -583,13 +583,17 @@
           <t>47</t>
         </is>
       </c>
-      <c r="F5" s="2" t="n"/>
+      <c r="F5" s="2" t="n">
+        <v>274</v>
+      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4:34</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="n"/>
+          <t>12:21</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>730</v>
+      </c>
       <c r="I5" s="2">
         <f>SUM(F5:F14) + SUM(H5:H14)</f>
         <v/>
@@ -605,26 +609,30 @@
       <c r="B6" s="2" t="n"/>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>Матвеев Даниил</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="n"/>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>387</v>
+      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="n"/>
+          <t>10:27</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>1719</v>
+      </c>
       <c r="I6" s="2" t="n"/>
       <c r="J6" s="2" t="n"/>
       <c r="K6" s="2" t="n"/>
@@ -635,12 +643,32 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="n"/>
-      <c r="C7" s="2" t="n"/>
-      <c r="D7" s="2" t="n"/>
-      <c r="E7" s="2" t="n"/>
-      <c r="F7" s="2" t="n"/>
-      <c r="G7" s="2" t="n"/>
-      <c r="H7" s="2" t="n"/>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>Матвеев Даниил</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>615</v>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>9:42</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="I7" s="2" t="n"/>
       <c r="J7" s="2" t="n"/>
       <c r="K7" s="2" t="n"/>
@@ -651,12 +679,32 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="n"/>
-      <c r="C8" s="2" t="n"/>
-      <c r="D8" s="2" t="n"/>
-      <c r="E8" s="2" t="n"/>
-      <c r="F8" s="2" t="n"/>
-      <c r="G8" s="2" t="n"/>
-      <c r="H8" s="2" t="n"/>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>Матвеев Даниил</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>15:50</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="I8" s="2" t="n"/>
       <c r="J8" s="2" t="n"/>
       <c r="K8" s="2" t="n"/>
@@ -667,12 +715,32 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="n"/>
-      <c r="C9" s="2" t="n"/>
-      <c r="D9" s="2" t="n"/>
-      <c r="E9" s="2" t="n"/>
-      <c r="F9" s="2" t="n"/>
-      <c r="G9" s="2" t="n"/>
-      <c r="H9" s="2" t="n"/>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>Матвеев Даниил</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>1325</v>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>11:11</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>1362</v>
+      </c>
       <c r="I9" s="2" t="n"/>
       <c r="J9" s="2" t="n"/>
       <c r="K9" s="2" t="n"/>
@@ -683,12 +751,32 @@
         <v>6</v>
       </c>
       <c r="B10" s="2" t="n"/>
-      <c r="C10" s="2" t="n"/>
-      <c r="D10" s="2" t="n"/>
-      <c r="E10" s="2" t="n"/>
-      <c r="F10" s="2" t="n"/>
-      <c r="G10" s="2" t="n"/>
-      <c r="H10" s="2" t="n"/>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>Матвеев Даниил</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>238</v>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>12:12</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>791</v>
+      </c>
       <c r="I10" s="2" t="n"/>
       <c r="J10" s="2" t="n"/>
       <c r="K10" s="2" t="n"/>
@@ -699,12 +787,32 @@
         <v>7</v>
       </c>
       <c r="B11" s="2" t="n"/>
-      <c r="C11" s="2" t="n"/>
-      <c r="D11" s="2" t="n"/>
-      <c r="E11" s="2" t="n"/>
-      <c r="F11" s="2" t="n"/>
-      <c r="G11" s="2" t="n"/>
-      <c r="H11" s="2" t="n"/>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>Матвеев Даниил</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>835</v>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>13:13</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>447</v>
+      </c>
       <c r="I11" s="2" t="n"/>
       <c r="J11" s="2" t="n"/>
       <c r="K11" s="2" t="n"/>
@@ -715,12 +823,32 @@
         <v>8</v>
       </c>
       <c r="B12" s="2" t="n"/>
-      <c r="C12" s="2" t="n"/>
-      <c r="D12" s="2" t="n"/>
-      <c r="E12" s="2" t="n"/>
-      <c r="F12" s="2" t="n"/>
-      <c r="G12" s="2" t="n"/>
-      <c r="H12" s="2" t="n"/>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>444</v>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>12:34</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>218</v>
+      </c>
       <c r="I12" s="2" t="n"/>
       <c r="J12" s="2" t="n"/>
       <c r="K12" s="2" t="n"/>
@@ -777,16 +905,20 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="n"/>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>1375</v>
+      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>321</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n"/>
+          <t>10:25</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>1735</v>
+      </c>
       <c r="I15" s="2">
         <f>SUM(F15:F24) + SUM(H15:H24)</f>
         <v/>
@@ -958,16 +1090,20 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="n"/>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>321</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="n"/>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="I25" s="2">
         <f>SUM(F25:F34) + SUM(H25:H34)</f>
         <v/>

--- a/My sheet.xlsx
+++ b/My sheet.xlsx
@@ -598,7 +598,9 @@
         <f>SUM(F5:F14) + SUM(H5:H14)</f>
         <v/>
       </c>
-      <c r="J5" s="2" t="n"/>
+      <c r="J5" s="2" t="n">
+        <v>6</v>
+      </c>
       <c r="K5" s="2" t="n"/>
       <c r="L5" s="2" t="n"/>
     </row>
@@ -634,7 +636,9 @@
         <v>1719</v>
       </c>
       <c r="I6" s="2" t="n"/>
-      <c r="J6" s="2" t="n"/>
+      <c r="J6" s="2" t="n">
+        <v>3</v>
+      </c>
       <c r="K6" s="2" t="n"/>
       <c r="L6" s="2" t="n"/>
     </row>
@@ -670,7 +674,9 @@
         <v>0</v>
       </c>
       <c r="I7" s="2" t="n"/>
-      <c r="J7" s="2" t="n"/>
+      <c r="J7" s="2" t="n">
+        <v>8</v>
+      </c>
       <c r="K7" s="2" t="n"/>
       <c r="L7" s="2" t="n"/>
     </row>
@@ -706,7 +712,9 @@
         <v>0</v>
       </c>
       <c r="I8" s="2" t="n"/>
-      <c r="J8" s="2" t="n"/>
+      <c r="J8" s="2" t="n">
+        <v>9</v>
+      </c>
       <c r="K8" s="2" t="n"/>
       <c r="L8" s="2" t="n"/>
     </row>
@@ -742,7 +750,9 @@
         <v>1362</v>
       </c>
       <c r="I9" s="2" t="n"/>
-      <c r="J9" s="2" t="n"/>
+      <c r="J9" s="2" t="n">
+        <v>2</v>
+      </c>
       <c r="K9" s="2" t="n"/>
       <c r="L9" s="2" t="n"/>
     </row>
@@ -778,7 +788,9 @@
         <v>791</v>
       </c>
       <c r="I10" s="2" t="n"/>
-      <c r="J10" s="2" t="n"/>
+      <c r="J10" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="K10" s="2" t="n"/>
       <c r="L10" s="2" t="n"/>
     </row>
@@ -814,7 +826,9 @@
         <v>447</v>
       </c>
       <c r="I11" s="2" t="n"/>
-      <c r="J11" s="2" t="n"/>
+      <c r="J11" s="2" t="n">
+        <v>4</v>
+      </c>
       <c r="K11" s="2" t="n"/>
       <c r="L11" s="2" t="n"/>
     </row>
@@ -850,7 +864,9 @@
         <v>218</v>
       </c>
       <c r="I12" s="2" t="n"/>
-      <c r="J12" s="2" t="n"/>
+      <c r="J12" s="2" t="n">
+        <v>7</v>
+      </c>
       <c r="K12" s="2" t="n"/>
       <c r="L12" s="2" t="n"/>
     </row>
@@ -923,7 +939,9 @@
         <f>SUM(F15:F24) + SUM(H15:H24)</f>
         <v/>
       </c>
-      <c r="J15" s="2" t="n"/>
+      <c r="J15" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="K15" s="2" t="n"/>
       <c r="L15" s="2" t="n"/>
     </row>
@@ -1108,7 +1126,9 @@
         <f>SUM(F25:F34) + SUM(H25:H34)</f>
         <v/>
       </c>
-      <c r="J25" s="2" t="n"/>
+      <c r="J25" s="2" t="n">
+        <v>9</v>
+      </c>
       <c r="K25" s="2" t="n"/>
       <c r="L25" s="2" t="n"/>
     </row>

--- a/My sheet.xlsx
+++ b/My sheet.xlsx
@@ -599,10 +599,14 @@
         <v/>
       </c>
       <c r="J5" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="K5" s="2" t="n"/>
-      <c r="L5" s="2" t="n"/>
+        <v>3</v>
+      </c>
+      <c r="K5" s="2" t="n">
+        <v>4773</v>
+      </c>
+      <c r="L5" s="2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -637,7 +641,7 @@
       </c>
       <c r="I6" s="2" t="n"/>
       <c r="J6" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K6" s="2" t="n"/>
       <c r="L6" s="2" t="n"/>
@@ -675,7 +679,7 @@
       </c>
       <c r="I7" s="2" t="n"/>
       <c r="J7" s="2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K7" s="2" t="n"/>
       <c r="L7" s="2" t="n"/>
@@ -713,7 +717,7 @@
       </c>
       <c r="I8" s="2" t="n"/>
       <c r="J8" s="2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K8" s="2" t="n"/>
       <c r="L8" s="2" t="n"/>
@@ -725,33 +729,33 @@
       <c r="B9" s="2" t="n"/>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>Матвеев Даниил</t>
+          <t>123</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>56</t>
         </is>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1325</v>
+        <v>444</v>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>12:34</t>
         </is>
       </c>
       <c r="H9" s="2" t="n">
-        <v>1362</v>
+        <v>218</v>
       </c>
       <c r="I9" s="2" t="n"/>
       <c r="J9" s="2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K9" s="2" t="n"/>
       <c r="L9" s="2" t="n"/>
@@ -763,33 +767,33 @@
       <c r="B10" s="2" t="n"/>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>Матвеев Даниил</t>
+          <t>123</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>56</t>
         </is>
       </c>
       <c r="F10" s="2" t="n">
-        <v>238</v>
+        <v>444</v>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>12:12</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
-        <v>791</v>
+        <v>557</v>
       </c>
       <c r="I10" s="2" t="n"/>
       <c r="J10" s="2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K10" s="2" t="n"/>
       <c r="L10" s="2" t="n"/>
@@ -799,36 +803,14 @@
         <v>7</v>
       </c>
       <c r="B11" s="2" t="n"/>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>Матвеев Даниил</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="n">
-        <v>835</v>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>13:13</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>447</v>
-      </c>
+      <c r="C11" s="2" t="n"/>
+      <c r="D11" s="2" t="n"/>
+      <c r="E11" s="2" t="n"/>
+      <c r="F11" s="2" t="n"/>
+      <c r="G11" s="2" t="n"/>
+      <c r="H11" s="2" t="n"/>
       <c r="I11" s="2" t="n"/>
-      <c r="J11" s="2" t="n">
-        <v>4</v>
-      </c>
+      <c r="J11" s="2" t="n"/>
       <c r="K11" s="2" t="n"/>
       <c r="L11" s="2" t="n"/>
     </row>
@@ -837,36 +819,14 @@
         <v>8</v>
       </c>
       <c r="B12" s="2" t="n"/>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="n">
-        <v>444</v>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>12:34</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>218</v>
-      </c>
+      <c r="C12" s="2" t="n"/>
+      <c r="D12" s="2" t="n"/>
+      <c r="E12" s="2" t="n"/>
+      <c r="F12" s="2" t="n"/>
+      <c r="G12" s="2" t="n"/>
+      <c r="H12" s="2" t="n"/>
       <c r="I12" s="2" t="n"/>
-      <c r="J12" s="2" t="n">
-        <v>7</v>
-      </c>
+      <c r="J12" s="2" t="n"/>
       <c r="K12" s="2" t="n"/>
       <c r="L12" s="2" t="n"/>
     </row>
@@ -942,8 +902,12 @@
       <c r="J15" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="K15" s="2" t="n"/>
-      <c r="L15" s="2" t="n"/>
+      <c r="K15" s="2" t="n">
+        <v>3110</v>
+      </c>
+      <c r="L15" s="2" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1127,10 +1091,14 @@
         <v/>
       </c>
       <c r="J25" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="K25" s="2" t="n"/>
-      <c r="L25" s="2" t="n"/>
+        <v>7</v>
+      </c>
+      <c r="K25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" s="2" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">

--- a/My sheet.xlsx
+++ b/My sheet.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,11 +45,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -57,8 +71,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -425,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,12 +503,12 @@
           <t>№ п/п</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>Команда</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t>Фамилия, имя</t>
         </is>
@@ -498,44 +518,44 @@
           <t>№ нагрудный</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="E3" s="4" t="inlineStr">
         <is>
           <t>Стрельба</t>
         </is>
       </c>
-      <c r="F3" s="2" t="n"/>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="F3" s="4" t="n"/>
+      <c r="G3" s="4" t="inlineStr">
         <is>
           <t>Бег</t>
         </is>
       </c>
-      <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="inlineStr">
+      <c r="H3" s="4" t="n"/>
+      <c r="I3" s="4" t="inlineStr">
         <is>
           <t>Сумма двоеборья</t>
         </is>
       </c>
-      <c r="J3" s="2" t="inlineStr">
+      <c r="J3" s="4" t="inlineStr">
         <is>
           <t>Личное место</t>
         </is>
       </c>
-      <c r="K3" s="2" t="inlineStr">
+      <c r="K3" s="4" t="inlineStr">
         <is>
           <t>Сумма 4-х лучших личных мест</t>
         </is>
       </c>
-      <c r="L3" s="2" t="inlineStr">
+      <c r="L3" s="4" t="inlineStr">
         <is>
           <t>Командное место</t>
         </is>
       </c>
     </row>
     <row r="4" ht="75" customHeight="1">
-      <c r="A4" s="2" t="n"/>
-      <c r="B4" s="2" t="n"/>
-      <c r="C4" s="2" t="n"/>
-      <c r="D4" s="2" t="n"/>
+      <c r="A4" s="4" t="n"/>
+      <c r="B4" s="4" t="n"/>
+      <c r="C4" s="4" t="n"/>
+      <c r="D4" s="4" t="n"/>
       <c r="E4" s="3" t="inlineStr">
         <is>
           <t>Результат</t>
@@ -556,699 +576,1017 @@
           <t>Очки</t>
         </is>
       </c>
-      <c r="I4" s="2" t="n"/>
-      <c r="J4" s="2" t="n"/>
-      <c r="K4" s="2" t="n"/>
-      <c r="L4" s="2" t="n"/>
+      <c r="I4" s="4" t="n"/>
+      <c r="J4" s="4" t="n"/>
+      <c r="K4" s="4" t="n"/>
+      <c r="L4" s="4" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>Матвеев Даниил</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="D5" s="4" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="E5" s="4" t="inlineStr">
         <is>
           <t>47</t>
         </is>
       </c>
-      <c r="F5" s="2" t="n">
+      <c r="F5" s="4" t="n">
         <v>274</v>
       </c>
-      <c r="G5" s="2" t="inlineStr">
+      <c r="G5" s="4" t="inlineStr">
         <is>
           <t>12:21</t>
         </is>
       </c>
-      <c r="H5" s="2" t="n">
+      <c r="H5" s="4" t="n">
         <v>730</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="4">
         <f>SUM(F5:F14) + SUM(H5:H14)</f>
         <v/>
       </c>
-      <c r="J5" s="2" t="n">
+      <c r="J5" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="K5" s="2" t="n">
-        <v>4773</v>
-      </c>
-      <c r="L5" s="2" t="n">
-        <v>1</v>
+      <c r="K5" s="4" t="n">
+        <v>2667</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B6" s="2" t="n"/>
-      <c r="C6" s="2" t="inlineStr">
+      <c r="B6" s="4" t="n"/>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>444</v>
+      </c>
+      <c r="G6" s="4" t="inlineStr">
+        <is>
+          <t>12:34</t>
+        </is>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>218</v>
+      </c>
+      <c r="I6" s="4" t="n"/>
+      <c r="J6" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="K6" s="4" t="n"/>
+      <c r="L6" s="4" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4" t="n"/>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E7" s="4" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>444</v>
+      </c>
+      <c r="G7" s="4" t="inlineStr">
+        <is>
+          <t>11:11</t>
+        </is>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>557</v>
+      </c>
+      <c r="I7" s="4" t="n"/>
+      <c r="J7" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="K7" s="4" t="n"/>
+      <c r="L7" s="4" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4" t="n"/>
+      <c r="C8" s="4" t="n"/>
+      <c r="D8" s="4" t="n"/>
+      <c r="E8" s="4" t="n"/>
+      <c r="F8" s="4" t="n"/>
+      <c r="G8" s="4" t="n"/>
+      <c r="H8" s="4" t="n"/>
+      <c r="I8" s="4" t="n"/>
+      <c r="J8" s="4" t="n"/>
+      <c r="K8" s="4" t="n"/>
+      <c r="L8" s="4" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" s="4" t="n"/>
+      <c r="C9" s="4" t="n"/>
+      <c r="D9" s="4" t="n"/>
+      <c r="E9" s="4" t="n"/>
+      <c r="F9" s="4" t="n"/>
+      <c r="G9" s="4" t="n"/>
+      <c r="H9" s="4" t="n"/>
+      <c r="I9" s="4" t="n"/>
+      <c r="J9" s="4" t="n"/>
+      <c r="K9" s="4" t="n"/>
+      <c r="L9" s="4" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4" t="n"/>
+      <c r="C10" s="4" t="n"/>
+      <c r="D10" s="4" t="n"/>
+      <c r="E10" s="4" t="n"/>
+      <c r="F10" s="4" t="n"/>
+      <c r="G10" s="4" t="n"/>
+      <c r="H10" s="4" t="n"/>
+      <c r="I10" s="4" t="n"/>
+      <c r="J10" s="4" t="n"/>
+      <c r="K10" s="4" t="n"/>
+      <c r="L10" s="4" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="B11" s="4" t="n"/>
+      <c r="C11" s="4" t="n"/>
+      <c r="D11" s="4" t="n"/>
+      <c r="E11" s="4" t="n"/>
+      <c r="F11" s="4" t="n"/>
+      <c r="G11" s="4" t="n"/>
+      <c r="H11" s="4" t="n"/>
+      <c r="I11" s="4" t="n"/>
+      <c r="J11" s="4" t="n"/>
+      <c r="K11" s="4" t="n"/>
+      <c r="L11" s="4" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="B12" s="4" t="n"/>
+      <c r="C12" s="4" t="n"/>
+      <c r="D12" s="4" t="n"/>
+      <c r="E12" s="4" t="n"/>
+      <c r="F12" s="4" t="n"/>
+      <c r="G12" s="4" t="n"/>
+      <c r="H12" s="4" t="n"/>
+      <c r="I12" s="4" t="n"/>
+      <c r="J12" s="4" t="n"/>
+      <c r="K12" s="4" t="n"/>
+      <c r="L12" s="4" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="B13" s="4" t="n"/>
+      <c r="C13" s="4" t="n"/>
+      <c r="D13" s="4" t="n"/>
+      <c r="E13" s="4" t="n"/>
+      <c r="F13" s="4" t="n"/>
+      <c r="G13" s="4" t="n"/>
+      <c r="H13" s="4" t="n"/>
+      <c r="I13" s="4" t="n"/>
+      <c r="J13" s="4" t="n"/>
+      <c r="K13" s="4" t="n"/>
+      <c r="L13" s="4" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="B14" s="4" t="n"/>
+      <c r="C14" s="4" t="n"/>
+      <c r="D14" s="4" t="n"/>
+      <c r="E14" s="4" t="n"/>
+      <c r="F14" s="4" t="n"/>
+      <c r="G14" s="4" t="n"/>
+      <c r="H14" s="4" t="n"/>
+      <c r="I14" s="4" t="n"/>
+      <c r="J14" s="4" t="n"/>
+      <c r="K14" s="4" t="n"/>
+      <c r="L14" s="4" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="B15" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" s="4" t="inlineStr">
         <is>
           <t>Матвеев Даниил</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="D15" s="4" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="E15" s="4" t="inlineStr">
         <is>
           <t>53</t>
         </is>
       </c>
-      <c r="F6" s="2" t="n">
+      <c r="F15" s="4" t="n">
         <v>387</v>
       </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="G15" s="4" t="inlineStr">
         <is>
           <t>10:27</t>
         </is>
       </c>
-      <c r="H6" s="2" t="n">
+      <c r="H15" s="4" t="n">
         <v>1719</v>
       </c>
-      <c r="I6" s="2" t="n"/>
-      <c r="J6" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="K6" s="2" t="n"/>
-      <c r="L6" s="2" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" s="2" t="n"/>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>Матвеев Даниил</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>615</v>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>9:42</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2" t="n"/>
-      <c r="J7" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="K7" s="2" t="n"/>
-      <c r="L7" s="2" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" s="2" t="n"/>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>Матвеев Даниил</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>15:50</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2" t="n"/>
-      <c r="J8" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="K8" s="2" t="n"/>
-      <c r="L8" s="2" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" s="2" t="n"/>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>444</v>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>12:34</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>218</v>
-      </c>
-      <c r="I9" s="2" t="n"/>
-      <c r="J9" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="K9" s="2" t="n"/>
-      <c r="L9" s="2" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B10" s="2" t="n"/>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>444</v>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>11:11</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>557</v>
-      </c>
-      <c r="I10" s="2" t="n"/>
-      <c r="J10" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="K10" s="2" t="n"/>
-      <c r="L10" s="2" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B11" s="2" t="n"/>
-      <c r="C11" s="2" t="n"/>
-      <c r="D11" s="2" t="n"/>
-      <c r="E11" s="2" t="n"/>
-      <c r="F11" s="2" t="n"/>
-      <c r="G11" s="2" t="n"/>
-      <c r="H11" s="2" t="n"/>
-      <c r="I11" s="2" t="n"/>
-      <c r="J11" s="2" t="n"/>
-      <c r="K11" s="2" t="n"/>
-      <c r="L11" s="2" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B12" s="2" t="n"/>
-      <c r="C12" s="2" t="n"/>
-      <c r="D12" s="2" t="n"/>
-      <c r="E12" s="2" t="n"/>
-      <c r="F12" s="2" t="n"/>
-      <c r="G12" s="2" t="n"/>
-      <c r="H12" s="2" t="n"/>
-      <c r="I12" s="2" t="n"/>
-      <c r="J12" s="2" t="n"/>
-      <c r="K12" s="2" t="n"/>
-      <c r="L12" s="2" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B13" s="2" t="n"/>
-      <c r="C13" s="2" t="n"/>
-      <c r="D13" s="2" t="n"/>
-      <c r="E13" s="2" t="n"/>
-      <c r="F13" s="2" t="n"/>
-      <c r="G13" s="2" t="n"/>
-      <c r="H13" s="2" t="n"/>
-      <c r="I13" s="2" t="n"/>
-      <c r="J13" s="2" t="n"/>
-      <c r="K13" s="2" t="n"/>
-      <c r="L13" s="2" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B14" s="2" t="n"/>
-      <c r="C14" s="2" t="n"/>
-      <c r="D14" s="2" t="n"/>
-      <c r="E14" s="2" t="n"/>
-      <c r="F14" s="2" t="n"/>
-      <c r="G14" s="2" t="n"/>
-      <c r="H14" s="2" t="n"/>
-      <c r="I14" s="2" t="n"/>
-      <c r="J14" s="2" t="n"/>
-      <c r="K14" s="2" t="n"/>
-      <c r="L14" s="2" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B15" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>Арчаков Евгений</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="n">
-        <v>1375</v>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>10:25</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>1735</v>
-      </c>
-      <c r="I15" s="2">
+      <c r="I15" s="4">
         <f>SUM(F15:F24) + SUM(H15:H24)</f>
         <v/>
       </c>
-      <c r="J15" s="2" t="n">
+      <c r="J15" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K15" s="4" t="n">
+        <v>5831</v>
+      </c>
+      <c r="L15" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="K15" s="2" t="n">
-        <v>3110</v>
-      </c>
-      <c r="L15" s="2" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
+      <c r="A16" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="B16" s="2" t="n"/>
-      <c r="C16" s="2" t="n"/>
-      <c r="D16" s="2" t="n"/>
-      <c r="E16" s="2" t="n"/>
-      <c r="F16" s="2" t="n"/>
-      <c r="G16" s="2" t="n"/>
-      <c r="H16" s="2" t="n"/>
-      <c r="I16" s="2" t="n"/>
-      <c r="J16" s="2" t="n"/>
-      <c r="K16" s="2" t="n"/>
-      <c r="L16" s="2" t="n"/>
+      <c r="B16" s="4" t="n"/>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>Матвеев Даниил</t>
+        </is>
+      </c>
+      <c r="D16" s="4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E16" s="4" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="F16" s="4" t="n">
+        <v>615</v>
+      </c>
+      <c r="G16" s="4" t="inlineStr">
+        <is>
+          <t>9:42</t>
+        </is>
+      </c>
+      <c r="H16" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4" t="n"/>
+      <c r="J16" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="K16" s="4" t="n"/>
+      <c r="L16" s="4" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n">
+      <c r="A17" s="4" t="n">
         <v>13</v>
       </c>
-      <c r="B17" s="2" t="n"/>
-      <c r="C17" s="2" t="n"/>
-      <c r="D17" s="2" t="n"/>
-      <c r="E17" s="2" t="n"/>
-      <c r="F17" s="2" t="n"/>
-      <c r="G17" s="2" t="n"/>
-      <c r="H17" s="2" t="n"/>
-      <c r="I17" s="2" t="n"/>
-      <c r="J17" s="2" t="n"/>
-      <c r="K17" s="2" t="n"/>
-      <c r="L17" s="2" t="n"/>
+      <c r="B17" s="4" t="n"/>
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t>Матвеев Даниил</t>
+        </is>
+      </c>
+      <c r="D17" s="4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E17" s="4" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F17" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4" t="inlineStr">
+        <is>
+          <t>15:50</t>
+        </is>
+      </c>
+      <c r="H17" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4" t="n"/>
+      <c r="J17" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="K17" s="4" t="n"/>
+      <c r="L17" s="4" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n">
+      <c r="A18" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="B18" s="2" t="n"/>
-      <c r="C18" s="2" t="n"/>
-      <c r="D18" s="2" t="n"/>
-      <c r="E18" s="2" t="n"/>
-      <c r="F18" s="2" t="n"/>
-      <c r="G18" s="2" t="n"/>
-      <c r="H18" s="2" t="n"/>
-      <c r="I18" s="2" t="n"/>
-      <c r="J18" s="2" t="n"/>
-      <c r="K18" s="2" t="n"/>
-      <c r="L18" s="2" t="n"/>
+      <c r="B18" s="4" t="n"/>
+      <c r="C18" s="4" t="inlineStr">
+        <is>
+          <t>Арчаков Евгений</t>
+        </is>
+      </c>
+      <c r="D18" s="4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E18" s="4" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F18" s="4" t="n">
+        <v>1375</v>
+      </c>
+      <c r="G18" s="4" t="inlineStr">
+        <is>
+          <t>10:25</t>
+        </is>
+      </c>
+      <c r="H18" s="4" t="n">
+        <v>1735</v>
+      </c>
+      <c r="I18" s="4" t="n"/>
+      <c r="J18" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" s="4" t="n"/>
+      <c r="L18" s="4" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n">
+      <c r="A19" s="4" t="n">
         <v>15</v>
       </c>
-      <c r="B19" s="2" t="n"/>
-      <c r="C19" s="2" t="n"/>
-      <c r="D19" s="2" t="n"/>
-      <c r="E19" s="2" t="n"/>
-      <c r="F19" s="2" t="n"/>
-      <c r="G19" s="2" t="n"/>
-      <c r="H19" s="2" t="n"/>
-      <c r="I19" s="2" t="n"/>
-      <c r="J19" s="2" t="n"/>
-      <c r="K19" s="2" t="n"/>
-      <c r="L19" s="2" t="n"/>
+      <c r="B19" s="4" t="n"/>
+      <c r="C19" s="4" t="n"/>
+      <c r="D19" s="4" t="n"/>
+      <c r="E19" s="4" t="n"/>
+      <c r="F19" s="4" t="n"/>
+      <c r="G19" s="4" t="n"/>
+      <c r="H19" s="4" t="n"/>
+      <c r="I19" s="4" t="n"/>
+      <c r="J19" s="4" t="n"/>
+      <c r="K19" s="4" t="n"/>
+      <c r="L19" s="4" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
+      <c r="A20" s="4" t="n">
         <v>16</v>
       </c>
-      <c r="B20" s="2" t="n"/>
-      <c r="C20" s="2" t="n"/>
-      <c r="D20" s="2" t="n"/>
-      <c r="E20" s="2" t="n"/>
-      <c r="F20" s="2" t="n"/>
-      <c r="G20" s="2" t="n"/>
-      <c r="H20" s="2" t="n"/>
-      <c r="I20" s="2" t="n"/>
-      <c r="J20" s="2" t="n"/>
-      <c r="K20" s="2" t="n"/>
-      <c r="L20" s="2" t="n"/>
+      <c r="B20" s="4" t="n"/>
+      <c r="C20" s="4" t="n"/>
+      <c r="D20" s="4" t="n"/>
+      <c r="E20" s="4" t="n"/>
+      <c r="F20" s="4" t="n"/>
+      <c r="G20" s="4" t="n"/>
+      <c r="H20" s="4" t="n"/>
+      <c r="I20" s="4" t="n"/>
+      <c r="J20" s="4" t="n"/>
+      <c r="K20" s="4" t="n"/>
+      <c r="L20" s="4" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n">
+      <c r="A21" s="4" t="n">
         <v>17</v>
       </c>
-      <c r="B21" s="2" t="n"/>
-      <c r="C21" s="2" t="n"/>
-      <c r="D21" s="2" t="n"/>
-      <c r="E21" s="2" t="n"/>
-      <c r="F21" s="2" t="n"/>
-      <c r="G21" s="2" t="n"/>
-      <c r="H21" s="2" t="n"/>
-      <c r="I21" s="2" t="n"/>
-      <c r="J21" s="2" t="n"/>
-      <c r="K21" s="2" t="n"/>
-      <c r="L21" s="2" t="n"/>
+      <c r="B21" s="4" t="n"/>
+      <c r="C21" s="4" t="n"/>
+      <c r="D21" s="4" t="n"/>
+      <c r="E21" s="4" t="n"/>
+      <c r="F21" s="4" t="n"/>
+      <c r="G21" s="4" t="n"/>
+      <c r="H21" s="4" t="n"/>
+      <c r="I21" s="4" t="n"/>
+      <c r="J21" s="4" t="n"/>
+      <c r="K21" s="4" t="n"/>
+      <c r="L21" s="4" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="n">
+      <c r="A22" s="4" t="n">
         <v>18</v>
       </c>
-      <c r="B22" s="2" t="n"/>
-      <c r="C22" s="2" t="n"/>
-      <c r="D22" s="2" t="n"/>
-      <c r="E22" s="2" t="n"/>
-      <c r="F22" s="2" t="n"/>
-      <c r="G22" s="2" t="n"/>
-      <c r="H22" s="2" t="n"/>
-      <c r="I22" s="2" t="n"/>
-      <c r="J22" s="2" t="n"/>
-      <c r="K22" s="2" t="n"/>
-      <c r="L22" s="2" t="n"/>
+      <c r="B22" s="4" t="n"/>
+      <c r="C22" s="4" t="n"/>
+      <c r="D22" s="4" t="n"/>
+      <c r="E22" s="4" t="n"/>
+      <c r="F22" s="4" t="n"/>
+      <c r="G22" s="4" t="n"/>
+      <c r="H22" s="4" t="n"/>
+      <c r="I22" s="4" t="n"/>
+      <c r="J22" s="4" t="n"/>
+      <c r="K22" s="4" t="n"/>
+      <c r="L22" s="4" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n">
+      <c r="A23" s="4" t="n">
         <v>19</v>
       </c>
-      <c r="B23" s="2" t="n"/>
-      <c r="C23" s="2" t="n"/>
-      <c r="D23" s="2" t="n"/>
-      <c r="E23" s="2" t="n"/>
-      <c r="F23" s="2" t="n"/>
-      <c r="G23" s="2" t="n"/>
-      <c r="H23" s="2" t="n"/>
-      <c r="I23" s="2" t="n"/>
-      <c r="J23" s="2" t="n"/>
-      <c r="K23" s="2" t="n"/>
-      <c r="L23" s="2" t="n"/>
+      <c r="B23" s="4" t="n"/>
+      <c r="C23" s="4" t="n"/>
+      <c r="D23" s="4" t="n"/>
+      <c r="E23" s="4" t="n"/>
+      <c r="F23" s="4" t="n"/>
+      <c r="G23" s="4" t="n"/>
+      <c r="H23" s="4" t="n"/>
+      <c r="I23" s="4" t="n"/>
+      <c r="J23" s="4" t="n"/>
+      <c r="K23" s="4" t="n"/>
+      <c r="L23" s="4" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n">
+      <c r="A24" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="B24" s="2" t="n"/>
-      <c r="C24" s="2" t="n"/>
-      <c r="D24" s="2" t="n"/>
-      <c r="E24" s="2" t="n"/>
-      <c r="F24" s="2" t="n"/>
-      <c r="G24" s="2" t="n"/>
-      <c r="H24" s="2" t="n"/>
-      <c r="I24" s="2" t="n"/>
-      <c r="J24" s="2" t="n"/>
-      <c r="K24" s="2" t="n"/>
-      <c r="L24" s="2" t="n"/>
+      <c r="B24" s="4" t="n"/>
+      <c r="C24" s="4" t="n"/>
+      <c r="D24" s="4" t="n"/>
+      <c r="E24" s="4" t="n"/>
+      <c r="F24" s="4" t="n"/>
+      <c r="G24" s="4" t="n"/>
+      <c r="H24" s="4" t="n"/>
+      <c r="I24" s="4" t="n"/>
+      <c r="J24" s="4" t="n"/>
+      <c r="K24" s="4" t="n"/>
+      <c r="L24" s="4" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="n">
+      <c r="A25" s="4" t="n">
         <v>21</v>
       </c>
-      <c r="B25" s="2" t="n">
+      <c r="B25" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="C25" s="2" t="inlineStr">
+      <c r="C25" s="4" t="inlineStr">
         <is>
           <t>Арчаков Евгений</t>
         </is>
       </c>
-      <c r="D25" s="2" t="inlineStr">
+      <c r="D25" s="4" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E25" s="2" t="inlineStr">
+      <c r="E25" s="4" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="F25" s="2" t="n">
+      <c r="F25" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="G25" s="2" t="inlineStr">
+      <c r="G25" s="4" t="inlineStr">
         <is>
           <t>16:00</t>
         </is>
       </c>
-      <c r="H25" s="2" t="n">
+      <c r="H25" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="4">
         <f>SUM(F25:F34) + SUM(H25:H34)</f>
         <v/>
       </c>
-      <c r="J25" s="2" t="n">
+      <c r="J25" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="K25" s="2" t="n">
+      <c r="K25" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="L25" s="2" t="n">
+      <c r="L25" s="4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="n">
+      <c r="A26" s="4" t="n">
         <v>22</v>
       </c>
-      <c r="B26" s="2" t="n"/>
-      <c r="C26" s="2" t="n"/>
-      <c r="D26" s="2" t="n"/>
-      <c r="E26" s="2" t="n"/>
-      <c r="F26" s="2" t="n"/>
-      <c r="G26" s="2" t="n"/>
-      <c r="H26" s="2" t="n"/>
-      <c r="I26" s="2" t="n"/>
-      <c r="J26" s="2" t="n"/>
-      <c r="K26" s="2" t="n"/>
-      <c r="L26" s="2" t="n"/>
+      <c r="B26" s="4" t="n"/>
+      <c r="C26" s="4" t="n"/>
+      <c r="D26" s="4" t="n"/>
+      <c r="E26" s="4" t="n"/>
+      <c r="F26" s="4" t="n"/>
+      <c r="G26" s="4" t="n"/>
+      <c r="H26" s="4" t="n"/>
+      <c r="I26" s="4" t="n"/>
+      <c r="J26" s="4" t="n"/>
+      <c r="K26" s="4" t="n"/>
+      <c r="L26" s="4" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n">
+      <c r="A27" s="4" t="n">
         <v>23</v>
       </c>
-      <c r="B27" s="2" t="n"/>
-      <c r="C27" s="2" t="n"/>
-      <c r="D27" s="2" t="n"/>
-      <c r="E27" s="2" t="n"/>
-      <c r="F27" s="2" t="n"/>
-      <c r="G27" s="2" t="n"/>
-      <c r="H27" s="2" t="n"/>
-      <c r="I27" s="2" t="n"/>
-      <c r="J27" s="2" t="n"/>
-      <c r="K27" s="2" t="n"/>
-      <c r="L27" s="2" t="n"/>
+      <c r="B27" s="4" t="n"/>
+      <c r="C27" s="4" t="n"/>
+      <c r="D27" s="4" t="n"/>
+      <c r="E27" s="4" t="n"/>
+      <c r="F27" s="4" t="n"/>
+      <c r="G27" s="4" t="n"/>
+      <c r="H27" s="4" t="n"/>
+      <c r="I27" s="4" t="n"/>
+      <c r="J27" s="4" t="n"/>
+      <c r="K27" s="4" t="n"/>
+      <c r="L27" s="4" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="n">
+      <c r="A28" s="4" t="n">
         <v>24</v>
       </c>
-      <c r="B28" s="2" t="n"/>
-      <c r="C28" s="2" t="n"/>
-      <c r="D28" s="2" t="n"/>
-      <c r="E28" s="2" t="n"/>
-      <c r="F28" s="2" t="n"/>
-      <c r="G28" s="2" t="n"/>
-      <c r="H28" s="2" t="n"/>
-      <c r="I28" s="2" t="n"/>
-      <c r="J28" s="2" t="n"/>
-      <c r="K28" s="2" t="n"/>
-      <c r="L28" s="2" t="n"/>
+      <c r="B28" s="4" t="n"/>
+      <c r="C28" s="4" t="n"/>
+      <c r="D28" s="4" t="n"/>
+      <c r="E28" s="4" t="n"/>
+      <c r="F28" s="4" t="n"/>
+      <c r="G28" s="4" t="n"/>
+      <c r="H28" s="4" t="n"/>
+      <c r="I28" s="4" t="n"/>
+      <c r="J28" s="4" t="n"/>
+      <c r="K28" s="4" t="n"/>
+      <c r="L28" s="4" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="n">
+      <c r="A29" s="4" t="n">
         <v>25</v>
       </c>
-      <c r="B29" s="2" t="n"/>
-      <c r="C29" s="2" t="n"/>
-      <c r="D29" s="2" t="n"/>
-      <c r="E29" s="2" t="n"/>
-      <c r="F29" s="2" t="n"/>
-      <c r="G29" s="2" t="n"/>
-      <c r="H29" s="2" t="n"/>
-      <c r="I29" s="2" t="n"/>
-      <c r="J29" s="2" t="n"/>
-      <c r="K29" s="2" t="n"/>
-      <c r="L29" s="2" t="n"/>
+      <c r="B29" s="4" t="n"/>
+      <c r="C29" s="4" t="n"/>
+      <c r="D29" s="4" t="n"/>
+      <c r="E29" s="4" t="n"/>
+      <c r="F29" s="4" t="n"/>
+      <c r="G29" s="4" t="n"/>
+      <c r="H29" s="4" t="n"/>
+      <c r="I29" s="4" t="n"/>
+      <c r="J29" s="4" t="n"/>
+      <c r="K29" s="4" t="n"/>
+      <c r="L29" s="4" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="n">
+      <c r="A30" s="4" t="n">
         <v>26</v>
       </c>
-      <c r="B30" s="2" t="n"/>
-      <c r="C30" s="2" t="n"/>
-      <c r="D30" s="2" t="n"/>
-      <c r="E30" s="2" t="n"/>
-      <c r="F30" s="2" t="n"/>
-      <c r="G30" s="2" t="n"/>
-      <c r="H30" s="2" t="n"/>
-      <c r="I30" s="2" t="n"/>
-      <c r="J30" s="2" t="n"/>
-      <c r="K30" s="2" t="n"/>
-      <c r="L30" s="2" t="n"/>
+      <c r="B30" s="4" t="n"/>
+      <c r="C30" s="4" t="n"/>
+      <c r="D30" s="4" t="n"/>
+      <c r="E30" s="4" t="n"/>
+      <c r="F30" s="4" t="n"/>
+      <c r="G30" s="4" t="n"/>
+      <c r="H30" s="4" t="n"/>
+      <c r="I30" s="4" t="n"/>
+      <c r="J30" s="4" t="n"/>
+      <c r="K30" s="4" t="n"/>
+      <c r="L30" s="4" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n">
+      <c r="A31" s="4" t="n">
         <v>27</v>
       </c>
-      <c r="B31" s="2" t="n"/>
-      <c r="C31" s="2" t="n"/>
-      <c r="D31" s="2" t="n"/>
-      <c r="E31" s="2" t="n"/>
-      <c r="F31" s="2" t="n"/>
-      <c r="G31" s="2" t="n"/>
-      <c r="H31" s="2" t="n"/>
-      <c r="I31" s="2" t="n"/>
-      <c r="J31" s="2" t="n"/>
-      <c r="K31" s="2" t="n"/>
-      <c r="L31" s="2" t="n"/>
+      <c r="B31" s="4" t="n"/>
+      <c r="C31" s="4" t="n"/>
+      <c r="D31" s="4" t="n"/>
+      <c r="E31" s="4" t="n"/>
+      <c r="F31" s="4" t="n"/>
+      <c r="G31" s="4" t="n"/>
+      <c r="H31" s="4" t="n"/>
+      <c r="I31" s="4" t="n"/>
+      <c r="J31" s="4" t="n"/>
+      <c r="K31" s="4" t="n"/>
+      <c r="L31" s="4" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n">
+      <c r="A32" s="4" t="n">
         <v>28</v>
       </c>
-      <c r="B32" s="2" t="n"/>
-      <c r="C32" s="2" t="n"/>
-      <c r="D32" s="2" t="n"/>
-      <c r="E32" s="2" t="n"/>
-      <c r="F32" s="2" t="n"/>
-      <c r="G32" s="2" t="n"/>
-      <c r="H32" s="2" t="n"/>
-      <c r="I32" s="2" t="n"/>
-      <c r="J32" s="2" t="n"/>
-      <c r="K32" s="2" t="n"/>
-      <c r="L32" s="2" t="n"/>
+      <c r="B32" s="4" t="n"/>
+      <c r="C32" s="4" t="n"/>
+      <c r="D32" s="4" t="n"/>
+      <c r="E32" s="4" t="n"/>
+      <c r="F32" s="4" t="n"/>
+      <c r="G32" s="4" t="n"/>
+      <c r="H32" s="4" t="n"/>
+      <c r="I32" s="4" t="n"/>
+      <c r="J32" s="4" t="n"/>
+      <c r="K32" s="4" t="n"/>
+      <c r="L32" s="4" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="n">
+      <c r="A33" s="4" t="n">
         <v>29</v>
       </c>
-      <c r="B33" s="2" t="n"/>
-      <c r="C33" s="2" t="n"/>
-      <c r="D33" s="2" t="n"/>
-      <c r="E33" s="2" t="n"/>
-      <c r="F33" s="2" t="n"/>
-      <c r="G33" s="2" t="n"/>
-      <c r="H33" s="2" t="n"/>
-      <c r="I33" s="2" t="n"/>
-      <c r="J33" s="2" t="n"/>
-      <c r="K33" s="2" t="n"/>
-      <c r="L33" s="2" t="n"/>
+      <c r="B33" s="4" t="n"/>
+      <c r="C33" s="4" t="n"/>
+      <c r="D33" s="4" t="n"/>
+      <c r="E33" s="4" t="n"/>
+      <c r="F33" s="4" t="n"/>
+      <c r="G33" s="4" t="n"/>
+      <c r="H33" s="4" t="n"/>
+      <c r="I33" s="4" t="n"/>
+      <c r="J33" s="4" t="n"/>
+      <c r="K33" s="4" t="n"/>
+      <c r="L33" s="4" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="n">
+      <c r="A34" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="B34" s="2" t="n"/>
-      <c r="C34" s="2" t="n"/>
-      <c r="D34" s="2" t="n"/>
-      <c r="E34" s="2" t="n"/>
-      <c r="F34" s="2" t="n"/>
-      <c r="G34" s="2" t="n"/>
-      <c r="H34" s="2" t="n"/>
-      <c r="I34" s="2" t="n"/>
-      <c r="J34" s="2" t="n"/>
-      <c r="K34" s="2" t="n"/>
-      <c r="L34" s="2" t="n"/>
+      <c r="B34" s="4" t="n"/>
+      <c r="C34" s="4" t="n"/>
+      <c r="D34" s="4" t="n"/>
+      <c r="E34" s="4" t="n"/>
+      <c r="F34" s="4" t="n"/>
+      <c r="G34" s="4" t="n"/>
+      <c r="H34" s="4" t="n"/>
+      <c r="I34" s="4" t="n"/>
+      <c r="J34" s="4" t="n"/>
+      <c r="K34" s="4" t="n"/>
+      <c r="L34" s="4" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="4" t="n">
+        <v>31</v>
+      </c>
+      <c r="B35" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C35" s="4" t="inlineStr">
+        <is>
+          <t>Арчаков Евгений</t>
+        </is>
+      </c>
+      <c r="D35" s="4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E35" s="4" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F35" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="4" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="H35" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" s="4">
+        <f>SUM(F35:F44) + SUM(H35:H44)</f>
+        <v/>
+      </c>
+      <c r="J35" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="K35" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="4" t="n">
+        <v>32</v>
+      </c>
+      <c r="B36" s="4" t="n"/>
+      <c r="C36" s="4" t="inlineStr">
+        <is>
+          <t>Арчаков Евгений</t>
+        </is>
+      </c>
+      <c r="D36" s="4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E36" s="4" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F36" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="4" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="H36" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" s="4" t="n"/>
+      <c r="J36" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="K36" s="4" t="n"/>
+      <c r="L36" s="4" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="4" t="n">
+        <v>33</v>
+      </c>
+      <c r="B37" s="4" t="n"/>
+      <c r="C37" s="4" t="inlineStr">
+        <is>
+          <t>Арчаков Евгений</t>
+        </is>
+      </c>
+      <c r="D37" s="4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E37" s="4" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F37" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="4" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="H37" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" s="4" t="n"/>
+      <c r="J37" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="K37" s="4" t="n"/>
+      <c r="L37" s="4" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="4" t="n">
+        <v>34</v>
+      </c>
+      <c r="B38" s="4" t="n"/>
+      <c r="C38" s="4" t="inlineStr">
+        <is>
+          <t>Арчаков Евгений</t>
+        </is>
+      </c>
+      <c r="D38" s="4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E38" s="4" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F38" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="4" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="H38" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" s="4" t="n"/>
+      <c r="J38" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="K38" s="4" t="n"/>
+      <c r="L38" s="4" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="4" t="n">
+        <v>35</v>
+      </c>
+      <c r="B39" s="4" t="n"/>
+      <c r="C39" s="4" t="inlineStr">
+        <is>
+          <t>Арчаков Евгений</t>
+        </is>
+      </c>
+      <c r="D39" s="4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E39" s="4" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F39" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="4" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="H39" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" s="4" t="n"/>
+      <c r="J39" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="K39" s="4" t="n"/>
+      <c r="L39" s="4" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="4" t="n">
+        <v>36</v>
+      </c>
+      <c r="B40" s="4" t="n"/>
+      <c r="C40" s="4" t="n"/>
+      <c r="D40" s="4" t="n"/>
+      <c r="E40" s="4" t="n"/>
+      <c r="F40" s="4" t="n"/>
+      <c r="G40" s="4" t="n"/>
+      <c r="H40" s="4" t="n"/>
+      <c r="I40" s="4" t="n"/>
+      <c r="J40" s="4" t="n"/>
+      <c r="K40" s="4" t="n"/>
+      <c r="L40" s="4" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="4" t="n">
+        <v>37</v>
+      </c>
+      <c r="B41" s="4" t="n"/>
+      <c r="C41" s="4" t="n"/>
+      <c r="D41" s="4" t="n"/>
+      <c r="E41" s="4" t="n"/>
+      <c r="F41" s="4" t="n"/>
+      <c r="G41" s="4" t="n"/>
+      <c r="H41" s="4" t="n"/>
+      <c r="I41" s="4" t="n"/>
+      <c r="J41" s="4" t="n"/>
+      <c r="K41" s="4" t="n"/>
+      <c r="L41" s="4" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="4" t="n">
+        <v>38</v>
+      </c>
+      <c r="B42" s="4" t="n"/>
+      <c r="C42" s="4" t="n"/>
+      <c r="D42" s="4" t="n"/>
+      <c r="E42" s="4" t="n"/>
+      <c r="F42" s="4" t="n"/>
+      <c r="G42" s="4" t="n"/>
+      <c r="H42" s="4" t="n"/>
+      <c r="I42" s="4" t="n"/>
+      <c r="J42" s="4" t="n"/>
+      <c r="K42" s="4" t="n"/>
+      <c r="L42" s="4" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="4" t="n">
+        <v>39</v>
+      </c>
+      <c r="B43" s="4" t="n"/>
+      <c r="C43" s="4" t="n"/>
+      <c r="D43" s="4" t="n"/>
+      <c r="E43" s="4" t="n"/>
+      <c r="F43" s="4" t="n"/>
+      <c r="G43" s="4" t="n"/>
+      <c r="H43" s="4" t="n"/>
+      <c r="I43" s="4" t="n"/>
+      <c r="J43" s="4" t="n"/>
+      <c r="K43" s="4" t="n"/>
+      <c r="L43" s="4" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="B44" s="4" t="n"/>
+      <c r="C44" s="4" t="n"/>
+      <c r="D44" s="4" t="n"/>
+      <c r="E44" s="4" t="n"/>
+      <c r="F44" s="4" t="n"/>
+      <c r="G44" s="4" t="n"/>
+      <c r="H44" s="4" t="n"/>
+      <c r="I44" s="4" t="n"/>
+      <c r="J44" s="4" t="n"/>
+      <c r="K44" s="4" t="n"/>
+      <c r="L44" s="4" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="5" t="inlineStr">
+        <is>
+          <t>Главный судья — qwe</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="n"/>
+      <c r="C45" s="2" t="n"/>
+      <c r="D45" s="2" t="n"/>
+      <c r="E45" s="2" t="n"/>
+      <c r="F45" s="2" t="n"/>
+      <c r="G45" s="2" t="n"/>
+      <c r="H45" s="2" t="n"/>
+      <c r="I45" s="2" t="n"/>
+      <c r="J45" s="2" t="n"/>
+      <c r="K45" s="2" t="n"/>
+      <c r="L45" s="2" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="5" t="inlineStr">
+        <is>
+          <t>Секретарь — qwe</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="n"/>
+      <c r="C46" s="2" t="n"/>
+      <c r="D46" s="2" t="n"/>
+      <c r="E46" s="2" t="n"/>
+      <c r="F46" s="2" t="n"/>
+      <c r="G46" s="2" t="n"/>
+      <c r="H46" s="2" t="n"/>
+      <c r="I46" s="2" t="n"/>
+      <c r="J46" s="2" t="n"/>
+      <c r="K46" s="2" t="n"/>
+      <c r="L46" s="2" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="30">
+    <mergeCell ref="I35:I44"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B14"/>
+    <mergeCell ref="A45:H45"/>
+    <mergeCell ref="B35:B44"/>
     <mergeCell ref="K15:K24"/>
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="K25:K34"/>
@@ -1258,12 +1596,15 @@
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="K5:K14"/>
+    <mergeCell ref="A46:H46"/>
     <mergeCell ref="G3:H3"/>
+    <mergeCell ref="K35:K44"/>
     <mergeCell ref="I25:I34"/>
     <mergeCell ref="L15:L24"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="L5:L14"/>
     <mergeCell ref="I5:I14"/>
+    <mergeCell ref="L35:L44"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="A1:L1"/>
